--- a/Data/processed/BSheet.xlsx
+++ b/Data/processed/BSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\processed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35906E4B-C639-48B5-ABFB-0770792D7D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>R.G. NAGAPPA MUDALIAR &amp; SONS</t>
   </si>
@@ -170,12 +176,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;&quot;0"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
@@ -351,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -407,9 +422,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
@@ -431,10 +443,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -446,6 +458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,9 +542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,34 +786,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -774,39 +823,39 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -822,7 +871,7 @@
         <v>1067337.3500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -838,7 +887,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -854,11 +903,13 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="15" t="s">
         <v>14</v>
@@ -868,7 +919,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -884,11 +935,13 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -898,7 +951,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -914,7 +967,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -930,7 +983,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -946,7 +999,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -957,14 +1010,18 @@
       <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="15" t="s">
         <v>28</v>
@@ -974,11 +1031,13 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="15" t="s">
         <v>30</v>
@@ -988,7 +1047,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1063,7 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1079,7 @@
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1095,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1111,7 @@
         <v>16723887.710000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1068,11 +1127,13 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="18" t="s">
         <v>42</v>
@@ -1082,7 +1143,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1091,14 +1152,18 @@
       <c r="D23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="18" t="s">
         <v>46</v>
@@ -1108,7 +1173,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1124,35 +1189,35 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="8">
         <v>88200</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="8">
         <v>4189.3999999999996</v>
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21">
         <v>17791225.059999999</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="24">
+      <c r="E27" s="20"/>
+      <c r="F27" s="23">
         <v>17791225.059999999</v>
       </c>
     </row>
